--- a/medicine/Enfance/Jo_Nesbø/Jo_Nesbø.xlsx
+++ b/medicine/Enfance/Jo_Nesbø/Jo_Nesbø.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo_Nesb%C3%B8</t>
+          <t>Jo_Nesbø</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jo Nesbø (/ˈjuː ˈnesbøː/), né le 29 mars 1960 à Oslo[1], est un écrivain, musicien et scénariste norvégien, auteur de roman policier et de littérature d'enfance et de jeunesse.
-Il est diplômé en économie et en analyse financière de la Norwegian School of Economics (Norges handelshøyskole) et travaille à la fois en tant que courtier en actions et journaliste, en plus d'être chanteur et auteur-compositeur dans le groupe pop Di Derre[2]. Les livres de Jo Nesbø sont publiés dans plus de 50 langues et sont vendus à plus de 55 millions d'exemplaires[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jo Nesbø (/ˈjuː ˈnesbøː/), né le 29 mars 1960 à Oslo, est un écrivain, musicien et scénariste norvégien, auteur de roman policier et de littérature d'enfance et de jeunesse.
+Il est diplômé en économie et en analyse financière de la Norwegian School of Economics (Norges handelshøyskole) et travaille à la fois en tant que courtier en actions et journaliste, en plus d'être chanteur et auteur-compositeur dans le groupe pop Di Derre. Les livres de Jo Nesbø sont publiés dans plus de 50 langues et sont vendus à plus de 55 millions d'exemplaires.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo_Nesb%C3%B8</t>
+          <t>Jo_Nesbø</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jo Nesbø est né à Oslo le 29 mars 1960 et a principalement grandi à Molde après avoir déménagé là-bas lorsqu'il avait 8 ans[4],[5]. Il a été baptisé Jon Nesbø. Ses parents voulaient le baptiser Jo, mais le prêtre a estimé que Jo n'était pas un vrai prénom. Il a donc été nommé d'après son arrière-grand-père Jon, mais a changé de prénom pour Jo lorsqu'il a eu 16 ans[6].
-La mère de Jo Nesbø était bibliothécaire, il s'est donc intéressé tôt à la littérature[2]. À l'âge de 15 ans, il a appris que son père s'était engagé comme combattant de première ligne sur le front de l'Est du côté allemand lors de la Seconde Guerre mondiale. Selon Nesbø, la connaissance de la trahison de son père a contribué à le façonner et à influencer son évaluation des choix que font les autres[7].
-À l'âge de 17 ans, il a fait ses débuts pour le club de football de Molde. Avec Bernt Roald comme entraîneur, ils ont remporté la finale de la Norway Cup[8] contre Os en 1978 (meilleur joueur et chaussure d'or). À l'automne, il a marqué deux buts importants contre le club de foot Rosenborg lorsqu'ils ont atteint la finale du championnat Junior-NM de Norvège[9]. Nesbø a marqué avec Tor Gunnar Hagbø lorsqu'ils ont remporté la finale contre Mjøndalen par 2 à 1. Après un certain temps, il a rompu les ligaments croisés des deux genoux et a été contraint de mettre fin à sa carrière de football[1].
-Puis, Nesbø a effectué son service militaire dans le Nord de la Norvège[2]. Étant initié dans la musique par son frère ainé, Jo a retenu cette passion pour toute sa vie. Plus tard, son frère et lui ont créé un groupe de musique pop Di Derre et jouaient dans un club où ils ont retenu attention des représentants d'une maison des disques[10].
-En même temps, Nesbø s'est accroché à son travail de courtier en actions et après un an de travail le jour et de jeu le soir, il en avait assez. Il a pris un congé d'un demi-année et a pris l'avion pour l'Australie. Peu de temps avant, un employé de maison d'édition avait demandé à Nesbø s'il ne voulait pas écrire un livre, et au cours du vol de trente heures vers l'Australie, il avait imaginé l'intrigue du roman " L'homme chauve-souris "[11] et le manuscrit avait été écrit pendant les cinq semaines de vacances[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jo Nesbø est né à Oslo le 29 mars 1960 et a principalement grandi à Molde après avoir déménagé là-bas lorsqu'il avait 8 ans,. Il a été baptisé Jon Nesbø. Ses parents voulaient le baptiser Jo, mais le prêtre a estimé que Jo n'était pas un vrai prénom. Il a donc été nommé d'après son arrière-grand-père Jon, mais a changé de prénom pour Jo lorsqu'il a eu 16 ans.
+La mère de Jo Nesbø était bibliothécaire, il s'est donc intéressé tôt à la littérature. À l'âge de 15 ans, il a appris que son père s'était engagé comme combattant de première ligne sur le front de l'Est du côté allemand lors de la Seconde Guerre mondiale. Selon Nesbø, la connaissance de la trahison de son père a contribué à le façonner et à influencer son évaluation des choix que font les autres.
+À l'âge de 17 ans, il a fait ses débuts pour le club de football de Molde. Avec Bernt Roald comme entraîneur, ils ont remporté la finale de la Norway Cup contre Os en 1978 (meilleur joueur et chaussure d'or). À l'automne, il a marqué deux buts importants contre le club de foot Rosenborg lorsqu'ils ont atteint la finale du championnat Junior-NM de Norvège. Nesbø a marqué avec Tor Gunnar Hagbø lorsqu'ils ont remporté la finale contre Mjøndalen par 2 à 1. Après un certain temps, il a rompu les ligaments croisés des deux genoux et a été contraint de mettre fin à sa carrière de football.
+Puis, Nesbø a effectué son service militaire dans le Nord de la Norvège. Étant initié dans la musique par son frère ainé, Jo a retenu cette passion pour toute sa vie. Plus tard, son frère et lui ont créé un groupe de musique pop Di Derre et jouaient dans un club où ils ont retenu attention des représentants d'une maison des disques.
+En même temps, Nesbø s'est accroché à son travail de courtier en actions et après un an de travail le jour et de jeu le soir, il en avait assez. Il a pris un congé d'un demi-année et a pris l'avion pour l'Australie. Peu de temps avant, un employé de maison d'édition avait demandé à Nesbø s'il ne voulait pas écrire un livre, et au cours du vol de trente heures vers l'Australie, il avait imaginé l'intrigue du roman " L'homme chauve-souris " et le manuscrit avait été écrit pendant les cinq semaines de vacances.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo_Nesb%C3%B8</t>
+          <t>Jo_Nesbø</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Débuts
-Son premier roman policier, L'Homme chauve-souris (1997), remporte dès sa publication un grand succès public et critique. Il obtient le prix Riverton 1997 et, l'année suivante, le prix Clé de verre du meilleur roman policier scandinave de l'année, ce qui propulse son auteur sur le devant de la scène littéraire du polar scandinave. Il est parfois présenté comme le successeur de l'auteur suédois Henning Mankell.
-Ses romans, assez proches de ceux de l'américain Michael Connelly et de son détective Harry Bosch, se révèlent moins lisses, moins politiquement corrects. En effet, les récits « se déroulent en Norvège, mais aussi à l'étranger, et sont l'occasion pour l'auteur de porter un regard acerbe sur son pays, dont il égratigne le modèle social-démocrate, mais aussi sur les autres cultures »[13].
-Un héros récurrent : l'inspecteur Harry Hole
-Son héros récurrent, Harry Hole, un inspecteur de la police d'Oslo est le stéréotype même du policier bourru, alcoolique et grand accro au tabac, qui a peu d'amis et utilise parfois des méthodes peu orthodoxes pour résoudre ses enquêtes.
-Ce héros peu commun exerce ses qualités de limier dans son pays et parcourt le monde au fil de ses enquêtes : l'Australie dans L'Homme chauve-souris (Flaggermusmannen, 1997), la Thaïlande dans Les Cafards (Kakerlakkene, 1998) et le Congo dans Le Léopard (Panserhjerte, 2009). Dans Rouge-gorge (Rødstrupe, 2000), qui se déroule au temps présent dans la capitale norvégienne, le récit, centré sur un soldat de la Seconde Guerre mondiale qui souffre d'un dédoublement de la personnalité et devient un serial killer, utilise une narration en deux temps qui évoque longuement les tranchées de Leningrad et la Vienne des années 1940.
-Diversification
-En 2005, Jo Nesbø signe un premier scénario pour la télévision. En 2007, il écrit son premier roman pour la jeunesse, La Poudre à prout du professeur Séraphin (Doktor Proktors prompepulver) qui obtient un gros succès et est adapté au cinéma en 2014.
-Non inclus dans la série de l'inspecteur Harry Hole, le thriller Chasseurs de têtes (Hodejegerne, 2008), est également adapté au cinéma sous le titre Headhunters (Hodejegerne) en 2011.
-En 2021 paraît chez Gallimard Leur Domaine, roman qui raconte l'histoire de deux frères en prise avec leur passé, leur pays, leurs secrets. Stephen King salue un livre « original et spécial »[14] tandis que Stéphanie Loré écrit : « Avec des mots énergiques, secs et acérés, le dernier roman de Jo Nesbø nous immerge dans les méandres étouffants d’une tragédie familiale pour nous parler de la complexité de nos motivations, de ce qu’il peut y avoir de monstrueux en l’humain, aussi d’amour inconditionnel. Hypnotique et dérangeant[15]. »
+          <t>Débuts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier roman policier, L'Homme chauve-souris (1997), remporte dès sa publication un grand succès public et critique. Il obtient le prix Riverton 1997 et, l'année suivante, le prix Clé de verre du meilleur roman policier scandinave de l'année, ce qui propulse son auteur sur le devant de la scène littéraire du polar scandinave. Il est parfois présenté comme le successeur de l'auteur suédois Henning Mankell.
+Ses romans, assez proches de ceux de l'américain Michael Connelly et de son détective Harry Bosch, se révèlent moins lisses, moins politiquement corrects. En effet, les récits « se déroulent en Norvège, mais aussi à l'étranger, et sont l'occasion pour l'auteur de porter un regard acerbe sur son pays, dont il égratigne le modèle social-démocrate, mais aussi sur les autres cultures ».
 </t>
         </is>
       </c>
@@ -569,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jo_Nesb%C3%B8</t>
+          <t>Jo_Nesbø</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,14 +596,99 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Analyse de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Un héros récurrent : l'inspecteur Harry Hole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son héros récurrent, Harry Hole, un inspecteur de la police d'Oslo est le stéréotype même du policier bourru, alcoolique et grand accro au tabac, qui a peu d'amis et utilise parfois des méthodes peu orthodoxes pour résoudre ses enquêtes.
+Ce héros peu commun exerce ses qualités de limier dans son pays et parcourt le monde au fil de ses enquêtes : l'Australie dans L'Homme chauve-souris (Flaggermusmannen, 1997), la Thaïlande dans Les Cafards (Kakerlakkene, 1998) et le Congo dans Le Léopard (Panserhjerte, 2009). Dans Rouge-gorge (Rødstrupe, 2000), qui se déroule au temps présent dans la capitale norvégienne, le récit, centré sur un soldat de la Seconde Guerre mondiale qui souffre d'un dédoublement de la personnalité et devient un serial killer, utilise une narration en deux temps qui évoque longuement les tranchées de Leningrad et la Vienne des années 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Analyse de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diversification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Jo Nesbø signe un premier scénario pour la télévision. En 2007, il écrit son premier roman pour la jeunesse, La Poudre à prout du professeur Séraphin (Doktor Proktors prompepulver) qui obtient un gros succès et est adapté au cinéma en 2014.
+Non inclus dans la série de l'inspecteur Harry Hole, le thriller Chasseurs de têtes (Hodejegerne, 2008), est également adapté au cinéma sous le titre Headhunters (Hodejegerne) en 2011.
+En 2021 paraît chez Gallimard Leur Domaine, roman qui raconte l'histoire de deux frères en prise avec leur passé, leur pays, leurs secrets. Stephen King salue un livre « original et spécial » tandis que Stéphanie Loré écrit : « Avec des mots énergiques, secs et acérés, le dernier roman de Jo Nesbø nous immerge dans les méandres étouffants d’une tragédie familiale pour nous parler de la complexité de nos motivations, de ce qu’il peut y avoir de monstrueux en l’humain, aussi d’amour inconditionnel. Hypnotique et dérangeant. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans policiers
-Série Harry Hole
-L'Homme chauve-souris, Gaïa, coll. « Polar », 2002 ((no) Flaggermusmannen, 1997)Prix Riverton 1997 et prix Clé de verre 1998. Réédition Gallimard, coll. « Folio policier » no 366, 2005
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Harry Hole</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Homme chauve-souris, Gaïa, coll. « Polar », 2002 ((no) Flaggermusmannen, 1997)Prix Riverton 1997 et prix Clé de verre 1998. Réédition Gallimard, coll. « Folio policier » no 366, 2005
 Les Cafards, Gaïa, coll. « Polar », 2003 ((no) Kakerlakkene, 1998)Réédition Gallimard, coll. « Folio policier » no 418, 2006
 Rouge-gorge, Gaïa, coll. « Polar », 2004 ((no) Rødstrupe, 2000)Réédition Gallimard, coll. « Folio policier » no 450, 2007
 Rue Sans-Souci, Gaïa, coll. « Polar », 2005 ((no) Sorgenfri, 2002)Réédition Gallimard, coll. « Folio policier » no 480, 2007
@@ -603,23 +700,170 @@
 Police, Gallimard, coll. « Série noire », 2014 ((no) Politi, 2013)Réédition Gallimard, coll. « Folio policier » no 762, 2015
 La Soif, Gallimard, coll. « Série noire », 2017 ((no) Tørst, 2017)Réédition Gallimard, coll. « Folio policier » no 891, 2019
 Le Couteau, Gallimard, coll. « Série noire », 2019 ((no) Kniv, 2019)Réédition Gallimard, coll. « Folio policier » no 940, 2021
-Éclipse totale, Gallimard, coll. « Série noire », 2023 ((no) Blodmåne, 2022)
-Série Olav Johansen
-Du sang sur la glace, Gallimard, coll. « Série noire », 2015 ((no) Blod på snø, 2015)  (ISBN 978-2070145225)Réédition Gallimard, coll. « Folio policier » no 793, 2016
-Soleil de nuit, Gallimard, coll. « Série noire », 2016 ((no) Mere blod, 2015)  (ISBN 978-2070145232)Réédition Gallimard, coll. « Folio policier » no 863, 2018
-Autres romans policiers
-(no) Det hvite hotellet, 2007
+Éclipse totale, Gallimard, coll. « Série noire », 2023 ((no) Blodmåne, 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Olav Johansen</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Du sang sur la glace, Gallimard, coll. « Série noire », 2015 ((no) Blod på snø, 2015)  (ISBN 978-2070145225)Réédition Gallimard, coll. « Folio policier » no 793, 2016
+Soleil de nuit, Gallimard, coll. « Série noire », 2016 ((no) Mere blod, 2015)  (ISBN 978-2070145232)Réédition Gallimard, coll. « Folio policier » no 863, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(no) Det hvite hotellet, 2007
 Chasseurs de têtes, Gallimard, coll. « Série noire », 2009 ((no) Hodejegerne, 2008)Réédition Gallimard, coll. « Folio policier » no 608, 2011
 Le Fils, Gallimard, coll. « Série noire », 2015 ((no) Sønnen, 2014)Trophée 813 du Meilleur roman étranger 2016 et prix Michel Witta. Réédition Gallimard, coll. « Folio policier » no 840, 2017
 Macbeth, Gallimard, coll. « Série noire », 2018 ((no) Macbeth, 2018), trad. Céline Romand-Monnier, 618 p.  (ISBN 978-2-0727-8605-1)Réécriture, sous forme de dystopie destinée à un public contemporain, de Macbeth, la célèbre tragédie de Shakespeare. Réédition Gallimard, coll. « Folio policier » no 913, 2020
-Leur domaine[15], Gallimard, coll. « Série noire », 2021 ((no) Kongeriket, 2020), trad. Céline Romand-Monnier, 640 p.  (ISBN 978-2-0728-9611-8)Réédition Gallimard, coll. « Folio policier » no 978, 2023
-Recueil de nouvelles
-(no) Karusellmusikk, 2001
+Leur domaine, Gallimard, coll. « Série noire », 2021 ((no) Kongeriket, 2020), trad. Céline Romand-Monnier, 640 p.  (ISBN 978-2-0728-9611-8)Réédition Gallimard, coll. « Folio policier » no 978, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(no) Karusellmusikk, 2001
 De la jalousie, Gallimard, coll. « Série noire », 2022 ((no) Sjalusimannen og andre fortellinger, 2021), trad. Céline Romand-Monnier, 342 p.  (ISBN 978-2-0729-4686-8)Réédition Gallimard, coll. « Folio policier » no 1017, 2024, 336 p.  (ISBN 978-2-07-304452-5)
-Rat island, Gallimard, coll. « Série noire », 2024 ((no) Rotteøya og andre fortellinger, 2021), 448 p.
-Littérature d'enfance et de jeunesse
-Série Professeur Séraphin[16]
-La Poudre à prout du professeur Séraphin, Bayard Jeunesse, 2009 ((no) Doktor Proktors prompepulver, 2007)  (ISBN 978-2-7470-2755-7)
+Rat island, Gallimard, coll. « Série noire », 2024 ((no) Rotteøya og andre fortellinger, 2021), 448 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Professeur Séraphin[16]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Poudre à prout du professeur Séraphin, Bayard Jeunesse, 2009 ((no) Doktor Proktors prompepulver, 2007)  (ISBN 978-2-7470-2755-7)
 La Baignoire à remonter le temps, Bayard Jeunesse, 2010 ((no) Doktor Proktors tidsbadekar, 2008)  (ISBN 978-2-7470-2756-4)
 Le Professeur Séraphin et la Fin du monde (ou presque), Bayard Jeunesse, 2012 ((no) Doktor Proktor og verdens undergang. Kanskje., 2010)  (ISBN 978-2-7470-3684-9)
 (no) Doktor Proktor og det store gullrøveriet, 2012
@@ -627,39 +871,78 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jo_Nesb%C3%B8</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-2011 :  Headhunters (Hodejegerne)[17], film norvégien réalisé par Morten Tyldum, adaptation du roman Chasseurs de têtes, avec Aksel Hennie et Nikolaj Coster-Waldau. Un remake américain du film a été abandonné au profit d'une série télévisée co-produite par Lionsgate et HBO[18].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2011 :  Headhunters (Hodejegerne), film norvégien réalisé par Morten Tyldum, adaptation du roman Chasseurs de têtes, avec Aksel Hennie et Nikolaj Coster-Waldau. Un remake américain du film a été abandonné au profit d'une série télévisée co-produite par Lionsgate et HBO.
 2011 :  Arme Riddere, film norvégien réalisé par Magnus Martens, d'après un récit de Jo Nesbø
 2014 :  Doktor Proktors prompevulver, film norvégien réalisé par Arild Fröhlich, d'après le roman pour enfants éponyme de Jo Nesbø
-2017 : Le Bonhomme de neige, film britannique réalisé par Tomas Alfredson, avec Michael Fassbender dans le rôle de l'inspecteur Harry Hole[19]. Le septième roman de Jo Nesbø, Le Bonhomme de neige (Snømannen), devait être porté à l'écran par Martin Scorsese[20], mais à cause d'un calendrier trop chargé, ce dernier s'est limité à n'être que l'un des producteurs exécutifs. Tomas Alfredson, choisi au printemps 2014, a réalisé le film[21], sorti au Royaume Uni et en Suède le 13 octobre 2017[22], le 20 novembre 2017 en France.
-À la télévision
-2005 : Deadline Torp, téléfilm norvégien réalisé par Nils Gaup, scénario signé par Jo Nesbø en collaboration
+2017 : Le Bonhomme de neige, film britannique réalisé par Tomas Alfredson, avec Michael Fassbender dans le rôle de l'inspecteur Harry Hole. Le septième roman de Jo Nesbø, Le Bonhomme de neige (Snømannen), devait être porté à l'écran par Martin Scorsese, mais à cause d'un calendrier trop chargé, ce dernier s'est limité à n'être que l'un des producteurs exécutifs. Tomas Alfredson, choisi au printemps 2014, a réalisé le film, sorti au Royaume Uni et en Suède le 13 octobre 2017, le 20 novembre 2017 en France.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jo_Nesbø</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo_Nesb%C3%B8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2005 : Deadline Torp, téléfilm norvégien réalisé par Nils Gaup, scénario signé par Jo Nesbø en collaboration
 2015 : Occupied, série télévisée franco-suédo-norvégienne créée et scénarisée par Jo Nesbø, Karianne Lund et Erik Skjoldbjærg</t>
         </is>
       </c>
